--- a/output/medicus mundi.xlsx
+++ b/output/medicus mundi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
+    <t>Public_Grant</t>
   </si>
   <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
+    <t>NGO_Country_Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
+    <t>Public_Funds_MAE</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Descentralizada</t>
+    <t>Public_Funds_Decentralized</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Internacional</t>
+    <t>Public_Funds_Internacional</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Otros</t>
+    <t>Public_Funds_Other</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Total</t>
+    <t>Public_Funds_Total</t>
   </si>
   <si>
-    <t>Fondos_Privados_Cuotas</t>
+    <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Fondos_Privados_Donaciones</t>
+    <t>Public_Funds_Donations</t>
   </si>
   <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -969,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ170"/>
+  <dimension ref="A1:AM170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +987,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,10 +1096,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1189,15 +1207,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>1764443</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1296,15 +1323,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>52507</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1403,15 +1439,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>984406</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1510,15 +1555,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>2002341</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1617,15 +1671,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>501331</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1724,15 +1787,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>682431</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1831,15 +1903,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>195123</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1938,15 +2019,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>2056131</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2045,15 +2135,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>2502</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2152,15 +2251,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>830778</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2259,15 +2367,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>1471104</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2366,15 +2483,24 @@
         <v>0.1534624392252408</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>322745</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2473,15 +2599,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>489986</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2580,15 +2715,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>1653494</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2687,15 +2831,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>2313864</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2794,15 +2947,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>411880</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2901,15 +3063,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>1249909</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3008,15 +3179,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>26595</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3115,15 +3295,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>594974</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3222,15 +3411,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>39136</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3329,15 +3527,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>204604</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3436,15 +3643,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>194509</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3543,15 +3759,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>76053</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3650,15 +3875,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>600446</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3757,15 +3991,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>97622</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3864,15 +4107,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>21216082</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3971,15 +4223,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>2080965</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4078,15 +4339,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>836907</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4185,15 +4455,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>526127</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4292,15 +4571,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>141047</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4399,15 +4687,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>2590024</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4506,15 +4803,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4613,15 +4919,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>1292962</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4720,15 +5035,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>1125608</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4827,15 +5151,24 @@
         <v>0.1106499763427803</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>555604</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4934,15 +5267,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>705336</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5041,15 +5383,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>1514226</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5148,15 +5499,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>1996797</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5255,15 +5615,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>411782</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5362,15 +5731,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>665874</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5469,15 +5847,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>128000</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5576,15 +5963,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>1002114</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5683,15 +6079,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>39838</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5790,15 +6195,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>311679</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5897,15 +6311,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>80000</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6004,15 +6427,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>9557</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6111,15 +6543,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>553212</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6218,15 +6659,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>107817</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6325,15 +6775,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>733234</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6432,15 +6891,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>1825214</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6539,15 +7007,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>642548</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6646,15 +7123,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>467407</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6753,15 +7239,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>1645578</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6860,15 +7355,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>790492</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6967,15 +7471,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>2343151</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7074,15 +7587,24 @@
         <v>0.1298298490230609</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>382211</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7181,15 +7703,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>182647</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7288,15 +7819,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>527167.5</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7395,15 +7935,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>152526.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7502,15 +8051,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>208743.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7609,15 +8167,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>742437.5</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7716,15 +8283,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>371638</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7823,15 +8399,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>868680</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7930,15 +8515,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>37103</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8037,15 +8631,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>3240.5</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8144,15 +8747,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>197310.5</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8251,15 +8863,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>787831.5</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8358,15 +8979,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>541136.5</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8465,15 +9095,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>1056</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8572,15 +9211,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>483631.5</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8679,15 +9327,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>36265.5</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8786,15 +9443,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>157635.5</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8893,15 +9559,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>319573</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -9000,15 +9675,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>86132.5</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9107,15 +9791,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>67270</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9214,15 +9907,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>182035.5</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9321,15 +10023,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>35837</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9428,15 +10139,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>4222</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9535,15 +10255,24 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>392463.5</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9642,15 +10371,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>182647</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9749,15 +10487,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>527167.5</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9856,15 +10603,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>152526.5</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9963,15 +10719,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>208743.5</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10070,15 +10835,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>742437.5</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10177,15 +10951,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>371638</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10284,15 +11067,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>868680</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10391,15 +11183,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>37103</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10498,15 +11299,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>3240.5</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -10605,15 +11415,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>197310.5</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -10712,15 +11531,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>787831.5</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -10819,15 +11647,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>541136.5</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10926,15 +11763,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>1056</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11033,15 +11879,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>483631.5</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11140,15 +11995,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>36265.5</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11247,15 +12111,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>157635.5</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -11354,15 +12227,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>319573</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -11461,15 +12343,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>86132.5</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11568,15 +12459,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>67270</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -11675,15 +12575,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>182035.5</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -11782,15 +12691,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>35837</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11889,15 +12807,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>1</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>4222</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -11996,15 +12923,24 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>392463.5</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12103,15 +13039,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>38004.905</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12210,15 +13155,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>497956.025</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -12317,15 +13271,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>774822.71</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12424,15 +13387,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>3958.15</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12531,15 +13503,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>679561.75</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12638,15 +13619,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>285082.825</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12745,15 +13735,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>1</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>122878.5</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -12852,15 +13851,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>134678.09</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12959,15 +13967,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>1</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>1200</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13066,15 +14083,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>1</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>547232</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13173,15 +14199,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>1</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>180321</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13280,15 +14315,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>165069.69</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13387,15 +14431,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>6203</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -13494,15 +14547,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>435586.765</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13601,15 +14663,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>84797.03</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -13708,15 +14779,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>608076.84</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -13815,15 +14895,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>412232.605</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13922,15 +15011,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>1</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>76023.765</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -14029,15 +15127,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>1</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>1025791.595</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -14136,15 +15243,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>1</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>89876.55</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -14243,15 +15359,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>186675</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -14350,15 +15475,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>4868.635</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -14457,15 +15591,24 @@
         <v>0.1081036208964918</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>13041.95</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -14564,15 +15707,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>38004.905</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -14671,15 +15823,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>1</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>497956.025</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14778,15 +15939,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>774822.71</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -14885,15 +16055,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>3958.15</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -14992,15 +16171,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>679561.75</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -15099,15 +16287,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>1</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>285082.825</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -15206,15 +16403,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>1</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>122878.5</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -15313,15 +16519,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>134678.09</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -15420,15 +16635,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>1</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>1200</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -15527,15 +16751,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>1</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>547232</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -15634,15 +16867,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>1</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>180321</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -15741,15 +16983,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
         <v>165069.69</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -15848,15 +17099,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
         <v>6203</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -15955,15 +17215,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
         <v>435586.765</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -16062,15 +17331,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>1</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
         <v>84797.03</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -16169,15 +17447,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>1</v>
+      </c>
+      <c r="AM142">
         <v>608076.84</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -16276,15 +17563,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI143">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
+      <c r="AM143">
         <v>412232.605</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -16383,15 +17679,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>1</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
         <v>76023.765</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -16490,15 +17795,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>1</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
         <v>1025791.595</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -16597,15 +17911,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>1</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+      <c r="AM146">
         <v>89876.55</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -16704,15 +18027,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI147">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
+      <c r="AM147">
         <v>186675</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -16811,15 +18143,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>1</v>
+      </c>
+      <c r="AM148">
         <v>4868.635</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -16918,15 +18259,24 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
+      </c>
+      <c r="AM149">
         <v>13041.95</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -17025,15 +18375,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>1</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+      <c r="AM150">
         <v>759299</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -17132,15 +18491,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AM151">
         <v>775023</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -17239,15 +18607,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI152">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>118361</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -17346,15 +18723,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AK153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
         <v>1068110</v>
       </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -17453,15 +18839,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI154">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ154">
+        <v>0</v>
+      </c>
+      <c r="AK154">
+        <v>1</v>
+      </c>
+      <c r="AL154">
+        <v>1</v>
+      </c>
+      <c r="AM154">
         <v>470389</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -17560,15 +18955,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI155">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <v>1</v>
+      </c>
+      <c r="AL155">
+        <v>1</v>
+      </c>
+      <c r="AM155">
         <v>622238</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -17667,15 +19071,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI156">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ156">
+        <v>0</v>
+      </c>
+      <c r="AK156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>1</v>
+      </c>
+      <c r="AM156">
         <v>357213</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -17774,15 +19187,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ157">
+        <v>0</v>
+      </c>
+      <c r="AK157">
+        <v>1</v>
+      </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
+      <c r="AM157">
         <v>756159</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -17881,15 +19303,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>1</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
+      <c r="AM158">
         <v>287866</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -17988,15 +19419,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI159">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>1</v>
+      </c>
+      <c r="AM159">
         <v>335358</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:39">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -18095,15 +19535,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI160">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ160">
+        <v>0</v>
+      </c>
+      <c r="AK160">
+        <v>0</v>
+      </c>
+      <c r="AL160">
+        <v>1</v>
+      </c>
+      <c r="AM160">
         <v>25631</v>
       </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:39">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -18202,15 +19651,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI161">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ161">
+        <v>0</v>
+      </c>
+      <c r="AK161">
+        <v>0</v>
+      </c>
+      <c r="AL161">
+        <v>1</v>
+      </c>
+      <c r="AM161">
         <v>934704</v>
       </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:39">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -18309,15 +19767,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI162">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ162">
+        <v>0</v>
+      </c>
+      <c r="AK162">
+        <v>1</v>
+      </c>
+      <c r="AL162">
+        <v>1</v>
+      </c>
+      <c r="AM162">
         <v>98503</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:39">
       <c r="A163" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -18416,15 +19883,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI163">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ163">
+        <v>0</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>1</v>
+      </c>
+      <c r="AM163">
         <v>709535</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:39">
       <c r="A164" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -18523,15 +19999,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI164">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ164">
+        <v>0</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>1</v>
+      </c>
+      <c r="AM164">
         <v>849336</v>
       </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:39">
       <c r="A165" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -18630,15 +20115,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI165">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ165">
+        <v>0</v>
+      </c>
+      <c r="AK165">
+        <v>1</v>
+      </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
+      <c r="AM165">
         <v>145050</v>
       </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:39">
       <c r="A166" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -18737,15 +20231,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI166">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ166">
+        <v>0</v>
+      </c>
+      <c r="AK166">
+        <v>1</v>
+      </c>
+      <c r="AL166">
+        <v>1</v>
+      </c>
+      <c r="AM166">
         <v>1294787</v>
       </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:39">
       <c r="A167" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -18844,15 +20347,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI167">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>1</v>
+      </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
+      <c r="AM167">
         <v>140539</v>
       </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:39">
       <c r="A168" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -18951,15 +20463,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI168">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AM168">
         <v>414176</v>
       </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:39">
       <c r="A169" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -19058,15 +20579,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AM169">
         <v>3627</v>
       </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:39">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -19165,9 +20695,18 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI170">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="AJ170">
+        <v>0</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AM170">
         <v>16438</v>
       </c>
     </row>

--- a/output/medicus mundi.xlsx
+++ b/output/medicus mundi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
+    <t>Private_Funds_Donations</t>
   </si>
   <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -978,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM170"/>
+  <dimension ref="A1:AO170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,7 +993,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,10 +1111,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U2">
         <v>74</v>
@@ -1201,30 +1213,36 @@
         <v>2611353</v>
       </c>
       <c r="AG2">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH2">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI2">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ2">
         <v>1963</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>1764443</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1281,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U3">
         <v>74</v>
@@ -1317,30 +1335,36 @@
         <v>1071699</v>
       </c>
       <c r="AG3">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH3">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI3">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ3">
         <v>1963</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>52507</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1397,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U4">
         <v>74</v>
@@ -1433,30 +1457,36 @@
         <v>4093293</v>
       </c>
       <c r="AG4">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH4">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI4">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ4">
         <v>1963</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>984406</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1513,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U5">
         <v>74</v>
@@ -1549,30 +1579,36 @@
         <v>2565774</v>
       </c>
       <c r="AG5">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH5">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI5">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ5">
         <v>1963</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>2002341</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1629,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U6">
         <v>74</v>
@@ -1665,30 +1701,36 @@
         <v>3881838</v>
       </c>
       <c r="AG6">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH6">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI6">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ6">
         <v>1963</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>501331</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1745,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U7">
         <v>74</v>
@@ -1781,30 +1823,36 @@
         <v>4231773</v>
       </c>
       <c r="AG7">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH7">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI7">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ7">
         <v>1963</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>682431</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1861,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U8">
         <v>74</v>
@@ -1897,30 +1945,36 @@
         <v>1570343</v>
       </c>
       <c r="AG8">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH8">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI8">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ8">
         <v>1963</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>195123</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1977,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U9">
         <v>74</v>
@@ -2013,30 +2067,36 @@
         <v>4266738</v>
       </c>
       <c r="AG9">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH9">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI9">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ9">
         <v>1963</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>2056131</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2093,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U10">
         <v>74</v>
@@ -2129,30 +2189,36 @@
         <v>2282830</v>
       </c>
       <c r="AG10">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH10">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI10">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ10">
         <v>1963</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>2502</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2209,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U11">
         <v>74</v>
@@ -2245,30 +2311,36 @@
         <v>3433758</v>
       </c>
       <c r="AG11">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH11">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI11">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ11">
         <v>1963</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>830778</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2325,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U12">
         <v>74</v>
@@ -2361,30 +2433,36 @@
         <v>5201043</v>
       </c>
       <c r="AG12">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH12">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI12">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ12">
         <v>1963</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>1471104</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2441,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2974254</v>
+        <v>3174155</v>
       </c>
       <c r="U13">
         <v>74</v>
@@ -2477,30 +2555,36 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>19380990</v>
+        <v>19580891</v>
       </c>
       <c r="AH13">
-        <v>0.1534624392252408</v>
+        <v>0.1621047275121444</v>
       </c>
       <c r="AI13">
+        <v>0.2663824133437033</v>
+      </c>
+      <c r="AJ13">
         <v>1963</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>322745</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2557,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U14">
         <v>78</v>
@@ -2593,30 +2677,36 @@
         <v>14100000</v>
       </c>
       <c r="AG14">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH14">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI14">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ14">
         <v>1963</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>489986</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2673,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U15">
         <v>78</v>
@@ -2709,30 +2799,36 @@
         <v>17422722</v>
       </c>
       <c r="AG15">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH15">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI15">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ15">
         <v>1963</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>1653494</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2789,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U16">
         <v>78</v>
@@ -2825,30 +2921,36 @@
         <v>8942976</v>
       </c>
       <c r="AG16">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH16">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI16">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ16">
         <v>1963</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>2313864</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2905,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U17">
         <v>78</v>
@@ -2941,30 +3043,36 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH17">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI17">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ17">
         <v>1963</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>411880</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3021,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U18">
         <v>78</v>
@@ -3057,30 +3165,36 @@
         <v>15684392</v>
       </c>
       <c r="AG18">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH18">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI18">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ18">
         <v>1963</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>1249909</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3137,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U19">
         <v>78</v>
@@ -3173,30 +3287,36 @@
         <v>4844720</v>
       </c>
       <c r="AG19">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH19">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI19">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ19">
         <v>1963</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>26595</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3253,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U20">
         <v>78</v>
@@ -3289,30 +3409,36 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH20">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI20">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ20">
         <v>1963</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>594974</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3369,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U21">
         <v>78</v>
@@ -3405,30 +3531,36 @@
         <v>5979579.666666666</v>
       </c>
       <c r="AG21">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH21">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI21">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ21">
         <v>1963</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>39136</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3485,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U22">
         <v>78</v>
@@ -3521,30 +3653,36 @@
         <v>7781510</v>
       </c>
       <c r="AG22">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH22">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI22">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ22">
         <v>1963</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>204604</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3601,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U23">
         <v>78</v>
@@ -3637,30 +3775,36 @@
         <v>3518583</v>
       </c>
       <c r="AG23">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH23">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI23">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ23">
         <v>1963</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>194509</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3717,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U24">
         <v>78</v>
@@ -3753,30 +3897,36 @@
         <v>14272145</v>
       </c>
       <c r="AG24">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH24">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI24">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ24">
         <v>1963</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>76053</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3833,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U25">
         <v>78</v>
@@ -3869,30 +4019,36 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH25">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI25">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ25">
         <v>1963</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>600446</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3949,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U26">
         <v>78</v>
@@ -3985,30 +4141,36 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH26">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI26">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ26">
         <v>1963</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>97622</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4065,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U27">
         <v>78</v>
@@ -4101,30 +4263,36 @@
         <v>22208778.83333333</v>
       </c>
       <c r="AG27">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH27">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI27">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ27">
         <v>1963</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>21216082</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4181,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U28">
         <v>78</v>
@@ -4217,30 +4385,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG28">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH28">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI28">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ28">
         <v>1963</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>2080965</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4297,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U29">
         <v>78</v>
@@ -4333,30 +4507,36 @@
         <v>10267085.83333333</v>
       </c>
       <c r="AG29">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH29">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI29">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ29">
         <v>1963</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>836907</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4413,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U30">
         <v>78</v>
@@ -4449,30 +4629,36 @@
         <v>18320809.5</v>
       </c>
       <c r="AG30">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH30">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI30">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ30">
         <v>1963</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>526127</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4529,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U31">
         <v>78</v>
@@ -4565,30 +4751,36 @@
         <v>13056447</v>
       </c>
       <c r="AG31">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH31">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI31">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ31">
         <v>1963</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>141047</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4645,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U32">
         <v>78</v>
@@ -4681,30 +4873,36 @@
         <v>38993399</v>
       </c>
       <c r="AG32">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH32">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI32">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ32">
         <v>1963</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>2590024</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4761,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U33">
         <v>78</v>
@@ -4797,30 +4995,36 @@
         <v>25548911</v>
       </c>
       <c r="AG33">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH33">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI33">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ33">
         <v>1963</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4877,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U34">
         <v>78</v>
@@ -4913,30 +5117,36 @@
         <v>32846422</v>
       </c>
       <c r="AG34">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH34">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI34">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ34">
         <v>1963</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>1292962</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4993,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U35">
         <v>78</v>
@@ -5029,30 +5239,36 @@
         <v>27999397</v>
       </c>
       <c r="AG35">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH35">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI35">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ35">
         <v>1963</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>1125608</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5109,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2397542</v>
+        <v>2783145</v>
       </c>
       <c r="U36">
         <v>78</v>
@@ -5145,30 +5361,36 @@
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>21667804</v>
+        <v>22053407</v>
       </c>
       <c r="AH36">
-        <v>0.1106499763427803</v>
+        <v>0.1262002283819457</v>
       </c>
       <c r="AI36">
+        <v>0.2679954167625891</v>
+      </c>
+      <c r="AJ36">
         <v>1963</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>555604</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5225,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U37">
         <v>82</v>
@@ -5261,30 +5483,36 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH37">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI37">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ37">
         <v>1963</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>705336</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5341,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U38">
         <v>82</v>
@@ -5377,30 +5605,36 @@
         <v>1592777</v>
       </c>
       <c r="AG38">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH38">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI38">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ38">
         <v>1963</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>1514226</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5457,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U39">
         <v>82</v>
@@ -5493,30 +5727,36 @@
         <v>1605744</v>
       </c>
       <c r="AG39">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH39">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI39">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ39">
         <v>1963</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>1996797</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5573,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U40">
         <v>82</v>
@@ -5609,30 +5849,36 @@
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH40">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI40">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ40">
         <v>1963</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>411782</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5689,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U41">
         <v>82</v>
@@ -5725,30 +5971,36 @@
         <v>1695725</v>
       </c>
       <c r="AG41">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH41">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI41">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ41">
         <v>1963</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>665874</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5805,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U42">
         <v>82</v>
@@ -5841,30 +6093,36 @@
         <v>1851881</v>
       </c>
       <c r="AG42">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH42">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI42">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ42">
         <v>1963</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>128000</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5921,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U43">
         <v>82</v>
@@ -5957,30 +6215,36 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH43">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI43">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ43">
         <v>1963</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>1002114</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6037,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U44">
         <v>82</v>
@@ -6073,30 +6337,36 @@
         <v>1336045</v>
       </c>
       <c r="AG44">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH44">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI44">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ44">
         <v>1963</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>39838</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6153,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U45">
         <v>82</v>
@@ -6189,30 +6459,36 @@
         <v>905668</v>
       </c>
       <c r="AG45">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH45">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI45">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ45">
         <v>1963</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>311679</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6269,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U46">
         <v>82</v>
@@ -6305,30 +6581,36 @@
         <v>1964876</v>
       </c>
       <c r="AG46">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH46">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI46">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ46">
         <v>1963</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>80000</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6385,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U47">
         <v>82</v>
@@ -6421,30 +6703,36 @@
         <v>1906871</v>
       </c>
       <c r="AG47">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH47">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI47">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ47">
         <v>1963</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>9557</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6501,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U48">
         <v>82</v>
@@ -6537,30 +6825,36 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH48">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI48">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ48">
         <v>1963</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>553212</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6617,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U49">
         <v>82</v>
@@ -6653,30 +6947,36 @@
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH49">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI49">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ49">
         <v>1963</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>107817</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6733,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U50">
         <v>82</v>
@@ -6769,30 +7069,36 @@
         <v>2407765</v>
       </c>
       <c r="AG50">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH50">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI50">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ50">
         <v>1963</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>733234</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6849,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U51">
         <v>82</v>
@@ -6885,30 +7191,36 @@
         <v>2140362</v>
       </c>
       <c r="AG51">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH51">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI51">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ51">
         <v>1963</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>1825214</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6965,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U52">
         <v>82</v>
@@ -7001,30 +7313,36 @@
         <v>2070562</v>
       </c>
       <c r="AG52">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH52">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI52">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ52">
         <v>1963</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>642548</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7081,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U53">
         <v>82</v>
@@ -7117,30 +7435,36 @@
         <v>2121035</v>
       </c>
       <c r="AG53">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH53">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI53">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ53">
         <v>1963</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>467407</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7197,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U54">
         <v>82</v>
@@ -7233,30 +7557,36 @@
         <v>2169360</v>
       </c>
       <c r="AG54">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH54">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI54">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ54">
         <v>1963</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>1645578</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7313,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U55">
         <v>82</v>
@@ -7349,30 +7679,36 @@
         <v>2299220</v>
       </c>
       <c r="AG55">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH55">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI55">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ55">
         <v>1963</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>790492</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7429,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U56">
         <v>82</v>
@@ -7465,30 +7801,36 @@
         <v>2304887</v>
       </c>
       <c r="AG56">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH56">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI56">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ56">
         <v>1963</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>2343151</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7545,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>2529016</v>
+        <v>3122051</v>
       </c>
       <c r="U57">
         <v>82</v>
@@ -7581,30 +7923,36 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>19479465</v>
+        <v>20072500</v>
       </c>
       <c r="AH57">
-        <v>0.1298298490230609</v>
+        <v>0.1555387221322705</v>
       </c>
       <c r="AI57">
+        <v>0.2455362311620376</v>
+      </c>
+      <c r="AJ57">
         <v>1963</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>382211</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7703,24 +8051,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI58">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ58">
         <v>1963</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58">
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>182647</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7819,24 +8173,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI59">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ59">
         <v>1963</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>527167.5</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7935,24 +8295,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI60">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ60">
         <v>1963</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>152526.5</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8051,24 +8417,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI61">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ61">
         <v>1963</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>1</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>208743.5</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -8167,24 +8539,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI62">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ62">
         <v>1963</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>742437.5</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8283,24 +8661,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI63">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ63">
         <v>1963</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>371638</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8399,24 +8783,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI64">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ64">
         <v>1963</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>868680</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8515,24 +8905,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI65">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ65">
         <v>1963</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>37103</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8631,24 +9027,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI66">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ66">
         <v>1963</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>3240.5</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8747,24 +9149,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI67">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ67">
         <v>1963</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>197310.5</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8863,24 +9271,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI68">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ68">
         <v>1963</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>787831.5</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8979,24 +9393,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI69">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ69">
         <v>1963</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
         <v>0</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>541136.5</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -9095,24 +9515,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI70">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ70">
         <v>1963</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>1056</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -9211,24 +9637,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI71">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ71">
         <v>1963</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>483631.5</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9327,24 +9759,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI72">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ72">
         <v>1963</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>36265.5</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9443,24 +9881,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI73">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ73">
         <v>1963</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>157635.5</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -9559,24 +10003,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI74">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ74">
         <v>1963</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>319573</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -9675,24 +10125,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI75">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ75">
         <v>1963</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>86132.5</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9791,24 +10247,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI76">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ76">
         <v>1963</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>67270</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9907,24 +10369,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI77">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ77">
         <v>1963</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>182035.5</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -10023,24 +10491,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI78">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ78">
         <v>1963</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>35837</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -10139,24 +10613,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI79">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ79">
         <v>1963</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>4222</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10255,24 +10735,30 @@
         <v>0.2275073394228661</v>
       </c>
       <c r="AI80">
+        <v>0.02946011096299564</v>
+      </c>
+      <c r="AJ80">
         <v>1963</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>392463.5</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10371,24 +10857,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI81">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ81">
         <v>1963</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81">
         <v>1</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>182647</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10487,24 +10979,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI82">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ82">
         <v>1963</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>527167.5</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10603,24 +11101,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI83">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ83">
         <v>1963</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83">
         <v>1</v>
       </c>
       <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>152526.5</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10719,24 +11223,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI84">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ84">
         <v>1963</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>208743.5</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10835,24 +11345,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI85">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ85">
         <v>1963</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85">
         <v>1</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>742437.5</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10951,24 +11467,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI86">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ86">
         <v>1963</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86">
         <v>1</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>371638</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -11067,24 +11589,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI87">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ87">
         <v>1963</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>868680</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -11183,24 +11711,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI88">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ88">
         <v>1963</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>37103</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11299,24 +11833,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI89">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ89">
         <v>1963</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89">
         <v>1</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>3240.5</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11415,24 +11955,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI90">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ90">
         <v>1963</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
         <v>0</v>
       </c>
       <c r="AL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>197310.5</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11531,24 +12077,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI91">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ91">
         <v>1963</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>787831.5</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -11647,24 +12199,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI92">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ92">
         <v>1963</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
         <v>0</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>541136.5</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11763,24 +12321,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI93">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ93">
         <v>1963</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
         <v>0</v>
       </c>
       <c r="AL93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93">
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>1056</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11879,24 +12443,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI94">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ94">
         <v>1963</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>1</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>483631.5</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11995,24 +12565,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI95">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ95">
         <v>1963</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
         <v>0</v>
       </c>
       <c r="AL95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>36265.5</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12111,24 +12687,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI96">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ96">
         <v>1963</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>1</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>157635.5</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -12227,24 +12809,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI97">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ97">
         <v>1963</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
         <v>0</v>
       </c>
       <c r="AL97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>319573</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -12343,24 +12931,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI98">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ98">
         <v>1963</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
         <v>0</v>
       </c>
       <c r="AL98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>86132.5</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12459,24 +13053,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI99">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ99">
         <v>1963</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
         <v>0</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>67270</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -12575,24 +13175,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI100">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ100">
         <v>1963</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
         <v>0</v>
       </c>
       <c r="AL100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM100">
+        <v>1</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>182035.5</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -12691,24 +13297,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI101">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ101">
         <v>1963</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
         <v>0</v>
       </c>
       <c r="AL101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM101">
+        <v>1</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>35837</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12807,24 +13419,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI102">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ102">
         <v>1963</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102">
         <v>1</v>
       </c>
       <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>4222</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12923,24 +13541,30 @@
         <v>0.291027110278165</v>
       </c>
       <c r="AI103">
+        <v>0.03124901607501694</v>
+      </c>
+      <c r="AJ103">
         <v>1963</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103">
         <v>1</v>
       </c>
       <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>392463.5</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12997,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="T104">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U104">
         <v>75</v>
@@ -13033,30 +13657,36 @@
         <v>0</v>
       </c>
       <c r="AG104">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH104">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI104">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ104">
         <v>1963</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>38004.905</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -13113,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="T105">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U105">
         <v>75</v>
@@ -13149,30 +13779,36 @@
         <v>10602689</v>
       </c>
       <c r="AG105">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH105">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI105">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ105">
         <v>1963</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105">
         <v>1</v>
       </c>
       <c r="AM105">
+        <v>1</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>497956.025</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -13229,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="T106">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U106">
         <v>75</v>
@@ -13265,30 +13901,36 @@
         <v>0</v>
       </c>
       <c r="AG106">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH106">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI106">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ106">
         <v>1963</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106">
+        <v>1</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>774822.71</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13345,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="T107">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U107">
         <v>75</v>
@@ -13381,30 +14023,36 @@
         <v>0</v>
       </c>
       <c r="AG107">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH107">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI107">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ107">
         <v>1963</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
         <v>0</v>
       </c>
       <c r="AL107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107">
+        <v>1</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>3958.15</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13461,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="T108">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U108">
         <v>75</v>
@@ -13497,30 +14145,36 @@
         <v>0</v>
       </c>
       <c r="AG108">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH108">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI108">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ108">
         <v>1963</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
         <v>0</v>
       </c>
       <c r="AL108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>679561.75</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13577,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="T109">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U109">
         <v>75</v>
@@ -13613,30 +14267,36 @@
         <v>6011154</v>
       </c>
       <c r="AG109">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH109">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI109">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ109">
         <v>1963</v>
       </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
       <c r="AK109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109">
         <v>1</v>
       </c>
       <c r="AM109">
+        <v>1</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>285082.825</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13693,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="T110">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U110">
         <v>75</v>
@@ -13729,30 +14389,36 @@
         <v>11105000</v>
       </c>
       <c r="AG110">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH110">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI110">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ110">
         <v>1963</v>
       </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
       <c r="AK110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110">
         <v>1</v>
       </c>
       <c r="AM110">
+        <v>1</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>122878.5</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -13809,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="T111">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U111">
         <v>75</v>
@@ -13845,30 +14511,36 @@
         <v>7960000</v>
       </c>
       <c r="AG111">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH111">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI111">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ111">
         <v>1963</v>
       </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
       <c r="AK111">
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM111">
+        <v>1</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>134678.09</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13925,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="T112">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U112">
         <v>75</v>
@@ -13961,30 +14633,36 @@
         <v>8039920</v>
       </c>
       <c r="AG112">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH112">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI112">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ112">
         <v>1963</v>
       </c>
-      <c r="AJ112">
-        <v>0</v>
-      </c>
       <c r="AK112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL112">
         <v>1</v>
       </c>
       <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>1200</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -14041,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="T113">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U113">
         <v>75</v>
@@ -14077,30 +14755,36 @@
         <v>6909225</v>
       </c>
       <c r="AG113">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH113">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI113">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ113">
         <v>1963</v>
       </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
       <c r="AK113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL113">
         <v>1</v>
       </c>
       <c r="AM113">
+        <v>1</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>547232</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -14157,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="T114">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U114">
         <v>75</v>
@@ -14193,30 +14877,36 @@
         <v>8125000</v>
       </c>
       <c r="AG114">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH114">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI114">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ114">
         <v>1963</v>
       </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
       <c r="AK114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL114">
         <v>1</v>
       </c>
       <c r="AM114">
+        <v>1</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>180321</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14273,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="T115">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U115">
         <v>75</v>
@@ -14309,30 +14999,36 @@
         <v>0</v>
       </c>
       <c r="AG115">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH115">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI115">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ115">
         <v>1963</v>
       </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
       <c r="AK115">
         <v>0</v>
       </c>
       <c r="AL115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>165069.69</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -14389,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="T116">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U116">
         <v>75</v>
@@ -14425,30 +15121,36 @@
         <v>0</v>
       </c>
       <c r="AG116">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH116">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI116">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ116">
         <v>1963</v>
       </c>
-      <c r="AJ116">
-        <v>0</v>
-      </c>
       <c r="AK116">
         <v>0</v>
       </c>
       <c r="AL116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>6203</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -14505,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="T117">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U117">
         <v>75</v>
@@ -14541,30 +15243,36 @@
         <v>6870483.333333333</v>
       </c>
       <c r="AG117">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH117">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI117">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ117">
         <v>1963</v>
       </c>
-      <c r="AJ117">
-        <v>0</v>
-      </c>
       <c r="AK117">
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM117">
+        <v>1</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>435586.765</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -14621,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="T118">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U118">
         <v>75</v>
@@ -14657,30 +15365,36 @@
         <v>5872715</v>
       </c>
       <c r="AG118">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH118">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI118">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ118">
         <v>1963</v>
       </c>
-      <c r="AJ118">
-        <v>0</v>
-      </c>
       <c r="AK118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL118">
         <v>1</v>
       </c>
       <c r="AM118">
+        <v>1</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
         <v>84797.03</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -14737,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="T119">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U119">
         <v>75</v>
@@ -14773,30 +15487,36 @@
         <v>6694417.333333333</v>
       </c>
       <c r="AG119">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH119">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI119">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ119">
         <v>1963</v>
       </c>
-      <c r="AJ119">
-        <v>0</v>
-      </c>
       <c r="AK119">
         <v>0</v>
       </c>
       <c r="AL119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM119">
+        <v>1</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
         <v>608076.84</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -14853,7 +15573,7 @@
         <v>0</v>
       </c>
       <c r="T120">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U120">
         <v>75</v>
@@ -14889,30 +15609,36 @@
         <v>8486450</v>
       </c>
       <c r="AG120">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH120">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI120">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ120">
         <v>1963</v>
       </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
       <c r="AK120">
         <v>0</v>
       </c>
       <c r="AL120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM120">
+        <v>1</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>412232.605</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -14969,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="T121">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U121">
         <v>75</v>
@@ -15005,30 +15731,36 @@
         <v>8243214</v>
       </c>
       <c r="AG121">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH121">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI121">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ121">
         <v>1963</v>
       </c>
-      <c r="AJ121">
-        <v>0</v>
-      </c>
       <c r="AK121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL121">
         <v>1</v>
       </c>
       <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
         <v>76023.765</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -15085,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U122">
         <v>75</v>
@@ -15121,30 +15853,36 @@
         <v>6615978</v>
       </c>
       <c r="AG122">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH122">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI122">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ122">
         <v>1963</v>
       </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
       <c r="AK122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL122">
         <v>1</v>
       </c>
       <c r="AM122">
+        <v>1</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
         <v>1025791.595</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -15201,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="T123">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U123">
         <v>75</v>
@@ -15237,30 +15975,36 @@
         <v>3285769</v>
       </c>
       <c r="AG123">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH123">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI123">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ123">
         <v>1963</v>
       </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
       <c r="AK123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL123">
         <v>1</v>
       </c>
       <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
         <v>89876.55</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -15317,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U124">
         <v>75</v>
@@ -15353,30 +16097,36 @@
         <v>0</v>
       </c>
       <c r="AG124">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH124">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI124">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ124">
         <v>1963</v>
       </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
       <c r="AK124">
         <v>0</v>
       </c>
       <c r="AL124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM124">
+        <v>1</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
         <v>186675</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -15433,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U125">
         <v>75</v>
@@ -15469,30 +16219,36 @@
         <v>5988850</v>
       </c>
       <c r="AG125">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH125">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI125">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ125">
         <v>1963</v>
       </c>
-      <c r="AJ125">
-        <v>0</v>
-      </c>
       <c r="AK125">
         <v>0</v>
       </c>
       <c r="AL125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
         <v>4868.635</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -15549,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <v>1963541.21</v>
+        <v>2384973.51</v>
       </c>
       <c r="U126">
         <v>75</v>
@@ -15585,30 +16341,36 @@
         <v>0</v>
       </c>
       <c r="AG126">
-        <v>18163510.1</v>
+        <v>18584942.4</v>
       </c>
       <c r="AH126">
-        <v>0.1081036208964918</v>
+        <v>0.1283282702022256</v>
       </c>
       <c r="AI126">
+        <v>0.3615830415487325</v>
+      </c>
+      <c r="AJ126">
         <v>1963</v>
       </c>
-      <c r="AJ126">
-        <v>0</v>
-      </c>
       <c r="AK126">
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
         <v>13041.95</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -15707,24 +16469,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI127">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ127">
         <v>1963</v>
       </c>
-      <c r="AJ127">
-        <v>0</v>
-      </c>
       <c r="AK127">
         <v>0</v>
       </c>
       <c r="AL127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
         <v>38004.905</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -15823,24 +16591,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI128">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ128">
         <v>1963</v>
       </c>
-      <c r="AJ128">
-        <v>0</v>
-      </c>
       <c r="AK128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL128">
         <v>1</v>
       </c>
       <c r="AM128">
+        <v>1</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
         <v>497956.025</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -15939,24 +16713,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI129">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ129">
         <v>1963</v>
       </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
       <c r="AK129">
         <v>0</v>
       </c>
       <c r="AL129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM129">
+        <v>1</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>774822.71</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -16055,24 +16835,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI130">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ130">
         <v>1963</v>
       </c>
-      <c r="AJ130">
-        <v>0</v>
-      </c>
       <c r="AK130">
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
+        <v>1</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
         <v>3958.15</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -16171,24 +16957,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI131">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ131">
         <v>1963</v>
       </c>
-      <c r="AJ131">
-        <v>0</v>
-      </c>
       <c r="AK131">
         <v>0</v>
       </c>
       <c r="AL131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
         <v>679561.75</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -16287,24 +17079,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI132">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ132">
         <v>1963</v>
       </c>
-      <c r="AJ132">
-        <v>0</v>
-      </c>
       <c r="AK132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL132">
         <v>1</v>
       </c>
       <c r="AM132">
+        <v>1</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
         <v>285082.825</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -16403,24 +17201,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI133">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ133">
         <v>1963</v>
       </c>
-      <c r="AJ133">
-        <v>0</v>
-      </c>
       <c r="AK133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL133">
         <v>1</v>
       </c>
       <c r="AM133">
+        <v>1</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
         <v>122878.5</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -16519,24 +17323,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI134">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ134">
         <v>1963</v>
       </c>
-      <c r="AJ134">
-        <v>0</v>
-      </c>
       <c r="AK134">
         <v>0</v>
       </c>
       <c r="AL134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM134">
+        <v>1</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
         <v>134678.09</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -16635,24 +17445,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI135">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ135">
         <v>1963</v>
       </c>
-      <c r="AJ135">
-        <v>0</v>
-      </c>
       <c r="AK135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL135">
         <v>1</v>
       </c>
       <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
         <v>1200</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -16751,24 +17567,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI136">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ136">
         <v>1963</v>
       </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
       <c r="AK136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136">
         <v>1</v>
       </c>
       <c r="AM136">
+        <v>1</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
         <v>547232</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -16867,24 +17689,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI137">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ137">
         <v>1963</v>
       </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
       <c r="AK137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL137">
         <v>1</v>
       </c>
       <c r="AM137">
+        <v>1</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
         <v>180321</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -16983,24 +17811,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI138">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ138">
         <v>1963</v>
       </c>
-      <c r="AJ138">
-        <v>0</v>
-      </c>
       <c r="AK138">
         <v>0</v>
       </c>
       <c r="AL138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
         <v>165069.69</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -17099,24 +17933,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI139">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ139">
         <v>1963</v>
       </c>
-      <c r="AJ139">
-        <v>0</v>
-      </c>
       <c r="AK139">
         <v>0</v>
       </c>
       <c r="AL139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
         <v>6203</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -17215,24 +18055,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI140">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ140">
         <v>1963</v>
       </c>
-      <c r="AJ140">
-        <v>0</v>
-      </c>
       <c r="AK140">
         <v>0</v>
       </c>
       <c r="AL140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM140">
+        <v>1</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
         <v>435586.765</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -17331,24 +18177,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI141">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ141">
         <v>1963</v>
       </c>
-      <c r="AJ141">
-        <v>0</v>
-      </c>
       <c r="AK141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL141">
         <v>1</v>
       </c>
       <c r="AM141">
+        <v>1</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
         <v>84797.03</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -17447,24 +18299,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI142">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ142">
         <v>1963</v>
       </c>
-      <c r="AJ142">
-        <v>0</v>
-      </c>
       <c r="AK142">
         <v>0</v>
       </c>
       <c r="AL142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM142">
+        <v>1</v>
+      </c>
+      <c r="AN142">
+        <v>1</v>
+      </c>
+      <c r="AO142">
         <v>608076.84</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -17563,24 +18421,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI143">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ143">
         <v>1963</v>
       </c>
-      <c r="AJ143">
-        <v>0</v>
-      </c>
       <c r="AK143">
         <v>0</v>
       </c>
       <c r="AL143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM143">
+        <v>1</v>
+      </c>
+      <c r="AN143">
+        <v>1</v>
+      </c>
+      <c r="AO143">
         <v>412232.605</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -17679,24 +18543,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI144">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ144">
         <v>1963</v>
       </c>
-      <c r="AJ144">
-        <v>0</v>
-      </c>
       <c r="AK144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL144">
         <v>1</v>
       </c>
       <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
         <v>76023.765</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -17795,24 +18665,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI145">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ145">
         <v>1963</v>
       </c>
-      <c r="AJ145">
-        <v>0</v>
-      </c>
       <c r="AK145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL145">
         <v>1</v>
       </c>
       <c r="AM145">
+        <v>1</v>
+      </c>
+      <c r="AN145">
+        <v>1</v>
+      </c>
+      <c r="AO145">
         <v>1025791.595</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -17911,24 +18787,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI146">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ146">
         <v>1963</v>
       </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
       <c r="AK146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL146">
         <v>1</v>
       </c>
       <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+      <c r="AO146">
         <v>89876.55</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -18027,24 +18909,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI147">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ147">
         <v>1963</v>
       </c>
-      <c r="AJ147">
-        <v>0</v>
-      </c>
       <c r="AK147">
         <v>0</v>
       </c>
       <c r="AL147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM147">
+        <v>1</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
         <v>186675</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -18143,24 +19031,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI148">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ148">
         <v>1963</v>
       </c>
-      <c r="AJ148">
-        <v>0</v>
-      </c>
       <c r="AK148">
         <v>0</v>
       </c>
       <c r="AL148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
         <v>4868.635</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -18259,24 +19153,30 @@
         <v>0.2126069364523302</v>
       </c>
       <c r="AI149">
+        <v>0.05338413230459742</v>
+      </c>
+      <c r="AJ149">
         <v>1963</v>
       </c>
-      <c r="AJ149">
-        <v>0</v>
-      </c>
       <c r="AK149">
         <v>0</v>
       </c>
       <c r="AL149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>1</v>
+      </c>
+      <c r="AO149">
         <v>13041.95</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -18375,24 +19275,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI150">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ150">
         <v>1963</v>
       </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
       <c r="AK150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL150">
         <v>1</v>
       </c>
       <c r="AM150">
+        <v>1</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
         <v>759299</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -18491,24 +19397,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI151">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ151">
         <v>1963</v>
       </c>
-      <c r="AJ151">
-        <v>0</v>
-      </c>
       <c r="AK151">
         <v>0</v>
       </c>
       <c r="AL151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM151">
+        <v>1</v>
+      </c>
+      <c r="AN151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
         <v>775023</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -18607,24 +19519,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI152">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ152">
         <v>1963</v>
       </c>
-      <c r="AJ152">
-        <v>0</v>
-      </c>
       <c r="AK152">
         <v>0</v>
       </c>
       <c r="AL152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM152">
+        <v>1</v>
+      </c>
+      <c r="AN152">
+        <v>1</v>
+      </c>
+      <c r="AO152">
         <v>118361</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -18723,24 +19641,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI153">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ153">
         <v>1963</v>
       </c>
-      <c r="AJ153">
-        <v>0</v>
-      </c>
       <c r="AK153">
         <v>0</v>
       </c>
       <c r="AL153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
         <v>1068110</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -18839,24 +19763,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI154">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ154">
         <v>1963</v>
       </c>
-      <c r="AJ154">
-        <v>0</v>
-      </c>
       <c r="AK154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL154">
         <v>1</v>
       </c>
       <c r="AM154">
+        <v>1</v>
+      </c>
+      <c r="AN154">
+        <v>1</v>
+      </c>
+      <c r="AO154">
         <v>470389</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -18955,24 +19885,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI155">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ155">
         <v>1963</v>
       </c>
-      <c r="AJ155">
-        <v>0</v>
-      </c>
       <c r="AK155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL155">
         <v>1</v>
       </c>
       <c r="AM155">
+        <v>1</v>
+      </c>
+      <c r="AN155">
+        <v>1</v>
+      </c>
+      <c r="AO155">
         <v>622238</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -19071,24 +20007,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI156">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ156">
         <v>1963</v>
       </c>
-      <c r="AJ156">
-        <v>0</v>
-      </c>
       <c r="AK156">
         <v>0</v>
       </c>
       <c r="AL156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM156">
+        <v>1</v>
+      </c>
+      <c r="AN156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
         <v>357213</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -19187,24 +20129,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI157">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ157">
         <v>1963</v>
       </c>
-      <c r="AJ157">
-        <v>0</v>
-      </c>
       <c r="AK157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL157">
         <v>1</v>
       </c>
       <c r="AM157">
+        <v>1</v>
+      </c>
+      <c r="AN157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
         <v>756159</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -19303,24 +20251,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI158">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ158">
         <v>1963</v>
       </c>
-      <c r="AJ158">
-        <v>0</v>
-      </c>
       <c r="AK158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL158">
         <v>1</v>
       </c>
       <c r="AM158">
+        <v>1</v>
+      </c>
+      <c r="AN158">
+        <v>1</v>
+      </c>
+      <c r="AO158">
         <v>287866</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -19419,24 +20373,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI159">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ159">
         <v>1963</v>
       </c>
-      <c r="AJ159">
-        <v>0</v>
-      </c>
       <c r="AK159">
         <v>0</v>
       </c>
       <c r="AL159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>1</v>
+      </c>
+      <c r="AO159">
         <v>335358</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -19535,24 +20495,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI160">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ160">
         <v>1963</v>
       </c>
-      <c r="AJ160">
-        <v>0</v>
-      </c>
       <c r="AK160">
         <v>0</v>
       </c>
       <c r="AL160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
         <v>25631</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -19651,24 +20617,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI161">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ161">
         <v>1963</v>
       </c>
-      <c r="AJ161">
-        <v>0</v>
-      </c>
       <c r="AK161">
         <v>0</v>
       </c>
       <c r="AL161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM161">
+        <v>1</v>
+      </c>
+      <c r="AN161">
+        <v>1</v>
+      </c>
+      <c r="AO161">
         <v>934704</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -19767,24 +20739,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI162">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ162">
         <v>1963</v>
       </c>
-      <c r="AJ162">
-        <v>0</v>
-      </c>
       <c r="AK162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL162">
         <v>1</v>
       </c>
       <c r="AM162">
+        <v>1</v>
+      </c>
+      <c r="AN162">
+        <v>1</v>
+      </c>
+      <c r="AO162">
         <v>98503</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -19883,24 +20861,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI163">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ163">
         <v>1963</v>
       </c>
-      <c r="AJ163">
-        <v>0</v>
-      </c>
       <c r="AK163">
         <v>0</v>
       </c>
       <c r="AL163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM163">
+        <v>1</v>
+      </c>
+      <c r="AN163">
+        <v>1</v>
+      </c>
+      <c r="AO163">
         <v>709535</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -19999,24 +20983,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI164">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ164">
         <v>1963</v>
       </c>
-      <c r="AJ164">
-        <v>0</v>
-      </c>
       <c r="AK164">
         <v>0</v>
       </c>
       <c r="AL164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM164">
+        <v>1</v>
+      </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
         <v>849336</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -20115,24 +21105,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI165">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ165">
         <v>1963</v>
       </c>
-      <c r="AJ165">
-        <v>0</v>
-      </c>
       <c r="AK165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL165">
         <v>1</v>
       </c>
       <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
         <v>145050</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -20231,24 +21227,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI166">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ166">
         <v>1963</v>
       </c>
-      <c r="AJ166">
-        <v>0</v>
-      </c>
       <c r="AK166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL166">
         <v>1</v>
       </c>
       <c r="AM166">
+        <v>1</v>
+      </c>
+      <c r="AN166">
+        <v>1</v>
+      </c>
+      <c r="AO166">
         <v>1294787</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -20347,24 +21349,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI167">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ167">
         <v>1963</v>
       </c>
-      <c r="AJ167">
-        <v>0</v>
-      </c>
       <c r="AK167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL167">
         <v>1</v>
       </c>
       <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>1</v>
+      </c>
+      <c r="AO167">
         <v>140539</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -20463,24 +21471,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI168">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ168">
         <v>1963</v>
       </c>
-      <c r="AJ168">
-        <v>0</v>
-      </c>
       <c r="AK168">
         <v>0</v>
       </c>
       <c r="AL168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM168">
+        <v>1</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
         <v>414176</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -20579,24 +21593,30 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI169">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ169">
         <v>1963</v>
       </c>
-      <c r="AJ169">
-        <v>0</v>
-      </c>
       <c r="AK169">
         <v>0</v>
       </c>
       <c r="AL169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>1</v>
+      </c>
+      <c r="AO169">
         <v>3627</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -20695,18 +21715,24 @@
         <v>0.1835257825495237</v>
       </c>
       <c r="AI170">
+        <v>0.0478020349527986</v>
+      </c>
+      <c r="AJ170">
         <v>1963</v>
       </c>
-      <c r="AJ170">
-        <v>0</v>
-      </c>
       <c r="AK170">
         <v>0</v>
       </c>
       <c r="AL170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>1</v>
+      </c>
+      <c r="AO170">
         <v>16438</v>
       </c>
     </row>

--- a/output/medicus mundi.xlsx
+++ b/output/medicus mundi.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D6">
         <v>109077</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D14">
         <v>2200000</v>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D15">
         <v>2200000</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D18">
         <v>2250000</v>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>570</v>
+        <v>647.8358464534491</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>580</v>
+        <v>557.6321326261259</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>690</v>
+        <v>710.2742021758368</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>350</v>
+        <v>473.2998774917226</v>
       </c>
       <c r="D23">
         <v>200000</v>
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>570</v>
+        <v>612.3436990512633</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>560</v>
+        <v>815.8736791314819</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D29">
         <v>109077</v>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D32">
         <v>4100000</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>3420</v>
+        <v>3579.960081455846</v>
       </c>
       <c r="D37">
         <v>2200000</v>
@@ -5518,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D38">
         <v>2200000</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D41">
         <v>2250000</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>600</v>
+        <v>670.2645481663891</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>640</v>
+        <v>587.1403830380606</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>730</v>
+        <v>711.1128122770988</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1240</v>
+        <v>1629.435089125503</v>
       </c>
       <c r="D46">
         <v>2250000</v>
@@ -6616,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>620</v>
+        <v>644.763840173281</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>630</v>
+        <v>864.5379000312432</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D54">
         <v>4100000</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D55">
         <v>310897</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D59">
         <v>376000</v>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D63">
         <v>310897</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8934,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9056,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>4170</v>
+        <v>3748.449444923865</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1360</v>
+        <v>1325.930225429421</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>650</v>
+        <v>692.4450379203138</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>630</v>
+        <v>561.9866500362131</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>730</v>
+        <v>684.6474015015979</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1360</v>
+        <v>1652.714170143609</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>670</v>
+        <v>683.460336640684</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10398,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>640</v>
+        <v>869.6014949562591</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>2980</v>
+        <v>2995.45235738661</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D82">
         <v>376000</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11496,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11618,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11740,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>4780</v>
+        <v>3796.882621798447</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D91">
         <v>318588</v>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1430</v>
+        <v>1360.10887014004</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>690</v>
+        <v>711.0361291687414</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12472,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>640</v>
+        <v>565.0479699255185</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>780</v>
+        <v>680.3923729568069</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>1450</v>
+        <v>1671.292192516047</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12838,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>700</v>
+        <v>698.3833464078615</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13204,7 +13204,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>650</v>
+        <v>872.1235974568563</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13448,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>3090</v>
+        <v>3087.12349650562</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13570,7 +13570,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>5010</v>
+        <v>3843.198240901342</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D105">
         <v>2500000</v>
@@ -13814,7 +13814,7 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>690</v>
+        <v>720.1523351943922</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14058,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14180,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14302,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D110">
         <v>2500000</v>
@@ -14424,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14546,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14668,7 +14668,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14912,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -15034,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15156,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D117">
         <v>220000</v>
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>3060</v>
+        <v>3125.07948072635</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15400,7 +15400,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>1390</v>
+        <v>1692.460946584157</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D120">
         <v>2500000</v>
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15766,7 +15766,7 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -16010,7 +16010,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>720</v>
+        <v>723.2321880005983</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16132,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16254,7 +16254,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>690</v>
+        <v>886.4370030633224</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16376,7 +16376,7 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>4520</v>
+        <v>3748.320622951519</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16498,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D128">
         <v>2500000</v>
@@ -16620,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>630</v>
+        <v>726.6520119370772</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16742,7 +16742,7 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17108,7 +17108,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D133">
         <v>2500000</v>
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17352,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D136">
         <v>346613</v>
@@ -17596,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -17840,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -17962,7 +17962,7 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D140">
         <v>220000</v>
@@ -18084,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>3020</v>
+        <v>3222.05417836739</v>
       </c>
       <c r="D141">
         <v>220000</v>
@@ -18206,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>1270</v>
+        <v>1732.587316450496</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -18328,7 +18328,7 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D143">
         <v>2500000</v>
@@ -18450,7 +18450,7 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -18572,7 +18572,7 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -18816,7 +18816,7 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>730</v>
+        <v>767.6026452352251</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -19060,7 +19060,7 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>700</v>
+        <v>900.3889853519216</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19182,7 +19182,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19304,7 +19304,7 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>600</v>
+        <v>747.8284752776283</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -19426,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>1820</v>
+        <v>2854.757682901436</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -19670,7 +19670,7 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D154">
         <v>298051</v>
@@ -19792,7 +19792,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -19914,7 +19914,7 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D157">
         <v>346613</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -20280,7 +20280,7 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -20402,7 +20402,7 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -20524,7 +20524,7 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D161">
         <v>255150</v>
@@ -20646,7 +20646,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D162">
         <v>220000</v>
@@ -20768,7 +20768,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>1160</v>
+        <v>1705.033923663474</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -20890,7 +20890,7 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
       <c r="C165">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -21134,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -21378,7 +21378,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>720</v>
+        <v>792.6212731169028</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -21500,7 +21500,7 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -21622,7 +21622,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>660</v>
+        <v>909.5979669529498</v>
       </c>
       <c r="D170">
         <v>0</v>

--- a/output/medicus mundi.xlsx
+++ b/output/medicus mundi.xlsx
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>914.4454289880559</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>334.0215725731523</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>937.175305459579</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>473.2998774917226</v>
       </c>
       <c r="D23">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>1904.346464968814</v>
       </c>
       <c r="D29">
-        <v>109077</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>501331</v>
@@ -5399,7 +5399,7 @@
         <v>3579.960081455846</v>
       </c>
       <c r="D37">
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>489986</v>
@@ -5521,7 +5521,7 @@
         <v>492.3430015592067</v>
       </c>
       <c r="D38">
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>1653494</v>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>2948.84548976845</v>
       </c>
       <c r="D41">
-        <v>2250000</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>1249909</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>973.1190116235886</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>1629.435089125503</v>
       </c>
       <c r="D46">
-        <v>2250000</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>2024.117324382548</v>
       </c>
       <c r="D54">
-        <v>4100000</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>2590024</v>
@@ -8571,7 +8571,7 @@
         <v>5122.180090208862</v>
       </c>
       <c r="D63">
-        <v>310897</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>790492</v>
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>357.5982958925156</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>988.4992779375814</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>182647</v>
+        <v>733234</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10889,10 +10889,10 @@
         <v>3056.152683606517</v>
       </c>
       <c r="D82">
-        <v>376000</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>527167.5</v>
+        <v>1825214</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>152526.5</v>
+        <v>642548</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>208743.5</v>
+        <v>467407</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>742437.5</v>
+        <v>1645578</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>371638</v>
+        <v>790492</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -11502,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>868680</v>
+        <v>2343151</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>37103</v>
+        <v>382211</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>3240.5</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -11868,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>197310.5</v>
+        <v>705336</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>318588</v>
       </c>
       <c r="E91">
-        <v>787831.5</v>
+        <v>1514226</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -12106,13 +12106,13 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>375.2191755030593</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>541136.5</v>
+        <v>1996797</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1056</v>
+        <v>411782</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>483631.5</v>
+        <v>1002114</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -12478,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>36265.5</v>
+        <v>39838</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>157635.5</v>
+        <v>311679</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -12722,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>319573</v>
+        <v>80000</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>86132.5</v>
+        <v>9557</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>67270</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>182035.5</v>
+        <v>553212</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>35837</v>
+        <v>107817</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -13326,13 +13326,13 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1018.750753846855</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>4222</v>
+        <v>128000</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -13454,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>392463.5</v>
+        <v>665874</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -15888,7 +15888,7 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1031.276228639696</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -16373,7 +16373,7 @@
         <v>166</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127">
         <v>3748.320622951519</v>
@@ -16382,7 +16382,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>38004.905</v>
+        <v>197310.5</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -16501,10 +16501,10 @@
         <v>2361.056581219794</v>
       </c>
       <c r="D128">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>497956.025</v>
+        <v>742437.5</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -16617,7 +16617,7 @@
         <v>168</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>726.6520119370772</v>
@@ -16626,7 +16626,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>774822.71</v>
+        <v>483631.5</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>3958.15</v>
+        <v>1056</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>679561.75</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>285082.825</v>
+        <v>371638</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -17111,10 +17111,10 @@
         <v>3314.741082534716</v>
       </c>
       <c r="D133">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>122878.5</v>
+        <v>182647</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -17227,7 +17227,7 @@
         <v>173</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>482.6390663355013</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>134678.09</v>
+        <v>86132.5</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -17358,7 +17358,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>1200</v>
+        <v>3240.5</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -17480,7 +17480,7 @@
         <v>346613</v>
       </c>
       <c r="E136">
-        <v>547232</v>
+        <v>527167.5</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>180321</v>
+        <v>152526.5</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>165069.69</v>
+        <v>37103</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -17846,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>6203</v>
+        <v>67270</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -17959,16 +17959,16 @@
         <v>179</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140">
         <v>729.7808175407341</v>
       </c>
       <c r="D140">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>435586.765</v>
+        <v>157635.5</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -18090,7 +18090,7 @@
         <v>220000</v>
       </c>
       <c r="E141">
-        <v>84797.03</v>
+        <v>392463.5</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -18203,7 +18203,7 @@
         <v>181</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142">
         <v>1732.587316450496</v>
@@ -18212,7 +18212,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>608076.84</v>
+        <v>319573</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -18325,16 +18325,16 @@
         <v>182</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>579.0880693780265</v>
       </c>
       <c r="D143">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>412232.605</v>
+        <v>787831.5</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -18456,7 +18456,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>76023.765</v>
+        <v>208743.5</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -18578,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>1025791.595</v>
+        <v>868680</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -18694,13 +18694,13 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1063.277878861239</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>89876.55</v>
+        <v>4222</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -18813,7 +18813,7 @@
         <v>186</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>767.6026452352251</v>
@@ -18822,7 +18822,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>186675</v>
+        <v>182035.5</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -18935,7 +18935,7 @@
         <v>187</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>1384.519227335143</v>
@@ -18944,7 +18944,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>4868.635</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>188</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>900.3889853519216</v>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>13041.95</v>
+        <v>35837</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -20039,7 +20039,7 @@
         <v>3242.636921959078</v>
       </c>
       <c r="D157">
-        <v>346613</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <v>547232</v>
@@ -20649,7 +20649,7 @@
         <v>3212.81539531051</v>
       </c>
       <c r="D162">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>84797.03</v>
@@ -21256,7 +21256,7 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1060.229080452468</v>
       </c>
       <c r="D167">
         <v>0</v>
